--- a/xlsx/旧金山州立大学_intext.xlsx
+++ b/xlsx/旧金山州立大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>旧金山州立大学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -125,13 +125,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
@@ -167,19 +164,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州藝術學院</t>
+    <t>加州艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -1061,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
         <v>7</v>
@@ -1087,10 +1084,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1116,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1145,10 +1142,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1174,10 +1171,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1203,10 +1200,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1232,10 +1229,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1261,10 +1258,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1290,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1319,10 +1316,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1348,10 +1345,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1377,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1406,10 +1403,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
